--- a/RN三方库-扫描结果.xlsx
+++ b/RN三方库-扫描结果.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="扫描结果" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详细版本信息" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="版本统计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +423,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
     <col width="34" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -469,12 +470,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.3.5</t>
+          <t>7.3.4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-09T21:18:19.285Z</t>
+          <t>2025-09-02T14:36:45.999Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,12 +500,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.3.4</t>
+          <t>7.3.3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-02T14:36:45.999Z</t>
+          <t>2025-08-28T07:29:25.438Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -529,12 +530,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.3.3</t>
+          <t>7.3.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-28T07:29:25.438Z</t>
+          <t>2025-08-13T08:50:24.941Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,12 +560,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.3.2</t>
+          <t>7.3.1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-13T08:50:24.941Z</t>
+          <t>2025-08-07T13:32:02.648Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,12 +590,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.3.1</t>
+          <t>7.3.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-08-07T13:32:02.648Z</t>
+          <t>2025-08-04T13:02:44.668Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -619,12 +620,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.3.0</t>
+          <t>7.2.5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-08-04T13:02:44.668Z</t>
+          <t>2025-07-30T09:06:49.566Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -649,12 +650,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.2.5</t>
+          <t>7.2.4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-07-30T09:06:49.566Z</t>
+          <t>2025-07-08T09:48:40.201Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -679,12 +680,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.2.4</t>
+          <t>7.2.3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-07-08T09:48:40.201Z</t>
+          <t>2025-06-27T21:02:28.275Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,12 +710,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.2.3</t>
+          <t>7.2.2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-06-27T21:02:28.275Z</t>
+          <t>2025-01-16T13:47:05.336Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -739,12 +740,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7.2.2</t>
+          <t>7.2.1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-01-16T13:47:05.336Z</t>
+          <t>2025-01-07T21:36:08.712Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -764,18 +765,131 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>lottie-react-native</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7.2.0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-01-07T20:19:04.262Z</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>React Native bindings for Lottie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Emilio Rodriguez</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>react-native-fast-image</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>未找到最近一年的版本</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>未找到2025年的版本</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ratxxx-sfa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>查找失败</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>库名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2025年发布版本数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lottie-react-native</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>react-native-fast-image</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ratxxx-sfa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>查找失败</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/RN三方库-扫描结果.xlsx
+++ b/RN三方库-扫描结果.xlsx
@@ -465,32 +465,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lottie-react-native</t>
+          <t>ratxxx-sfa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.3.4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:36:45.999Z</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>React Native bindings for Lottie</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Emilio Rodriguez</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
+          <t>查找失败</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -500,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.3.3</t>
+          <t>7.3.4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-28T07:29:25.438Z</t>
+          <t>2025-09-02T14:36:45.999Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,12 +516,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.3.2</t>
+          <t>7.3.3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-13T08:50:24.941Z</t>
+          <t>2025-08-28T07:29:25.438Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -560,12 +546,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.3.1</t>
+          <t>7.3.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-07T13:32:02.648Z</t>
+          <t>2025-08-13T08:50:24.941Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,12 +576,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.3.0</t>
+          <t>7.3.1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-08-04T13:02:44.668Z</t>
+          <t>2025-08-07T13:32:02.648Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -620,12 +606,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.2.5</t>
+          <t>7.3.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-07-30T09:06:49.566Z</t>
+          <t>2025-08-04T13:02:44.668Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -650,12 +636,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.2.4</t>
+          <t>7.2.5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-07-08T09:48:40.201Z</t>
+          <t>2025-07-30T09:06:49.566Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,12 +666,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.2.3</t>
+          <t>7.2.4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-06-27T21:02:28.275Z</t>
+          <t>2025-07-08T09:48:40.201Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -710,12 +696,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.2.2</t>
+          <t>7.2.3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-01-16T13:47:05.336Z</t>
+          <t>2025-06-27T21:02:28.275Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -740,12 +726,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7.2.1</t>
+          <t>7.2.2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-01-07T21:36:08.712Z</t>
+          <t>2025-01-16T13:47:05.336Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -770,12 +756,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.2.0</t>
+          <t>7.2.1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-01-07T20:19:04.262Z</t>
+          <t>2025-01-07T21:36:08.712Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -795,28 +781,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>react-native-fast-image</t>
+          <t>lottie-react-native</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>未找到2025年的版本</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>7.2.0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-01-07T20:19:04.262Z</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>React Native bindings for Lottie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Emilio Rodriguez</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ratxxx-sfa</t>
+          <t>react-native-fast-image</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>查找失败</t>
+          <t>未找到2025年的版本</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -862,33 +862,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lottie-react-native</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
+          <t>ratxxx-sfa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>查找失败</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>react-native-fast-image</t>
+          <t>lottie-react-native</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ratxxx-sfa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>查找失败</t>
-        </is>
+          <t>react-native-fast-image</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
